--- a/cfs_6_0.1.xlsx
+++ b/cfs_6_0.1.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.671</v>
+        <v>0.655</v>
       </c>
       <c r="C2" t="n">
         <v>0.7</v>
@@ -536,7 +536,7 @@
         <v>0.639</v>
       </c>
       <c r="J2" t="n">
-        <v>0.427</v>
+        <v>0.501</v>
       </c>
       <c r="K2" t="n">
         <v>0.556</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.754</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -702,7 +702,7 @@
         <v>0.661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="E6" t="n">
         <v>0.598</v>
@@ -720,7 +720,7 @@
         <v>0.589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.422</v>
+        <v>0.446</v>
       </c>
       <c r="K6" t="n">
         <v>0.496</v>
@@ -3284,7 +3284,7 @@
         <v>0.509</v>
       </c>
       <c r="F62" t="n">
-        <v>0.484</v>
+        <v>0.473</v>
       </c>
       <c r="G62" t="n">
         <v>0.512</v>
@@ -3302,7 +3302,7 @@
         <v>0.464</v>
       </c>
       <c r="L62" t="n">
-        <v>0.431</v>
+        <v>0.407</v>
       </c>
       <c r="M62" t="n">
         <v>1.103448275862069</v>
@@ -4170,7 +4170,7 @@
         <v>0.503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.288</v>
+        <v>0.366</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.672</v>
+        <v>0.634</v>
       </c>
       <c r="C84" t="n">
         <v>0.604</v>
@@ -4299,7 +4299,7 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.658</v>
       </c>
       <c r="H84" t="n">
         <v>0.307</v>
@@ -4903,7 +4903,7 @@
         <v>0.315</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="J97" t="n">
         <v>0.333</v>
